--- a/old_database/crypto/s2cDNASample/s2cDNASample_0759.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_0759.xlsx
@@ -43,7 +43,7 @@
     <t>08.31.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0759</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s2cDNASample/s2cDNASample_0759.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_0759.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Retrofitted_0759</t>
   </si>
   <si>
-    <t xml:space="preserve">SolexaPrep</t>
+    <t xml:space="preserve">SuperScriptIII</t>
   </si>
   <si>
     <t xml:space="preserve">08.10.12</t>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,12 +98,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -172,8 +166,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -196,7 +190,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="G2:G25 G1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,7 +221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -250,7 +244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -273,7 +267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -296,7 +290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
@@ -319,7 +313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
@@ -342,7 +336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
@@ -365,7 +359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
@@ -388,7 +382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>7</v>
       </c>
@@ -411,7 +405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>7</v>
       </c>
@@ -434,7 +428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>7</v>
       </c>
@@ -457,7 +451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>7</v>
       </c>
@@ -480,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>7</v>
       </c>
@@ -503,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>10</v>
       </c>
@@ -526,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>10</v>
       </c>
@@ -549,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>10</v>
       </c>
@@ -572,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>10</v>
       </c>
@@ -595,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>10</v>
       </c>
@@ -618,7 +612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
@@ -641,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>10</v>
       </c>
@@ -664,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>10</v>
       </c>
@@ -687,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
@@ -710,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>10</v>
       </c>
@@ -733,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>10</v>
       </c>
@@ -756,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>11</v>
       </c>
